--- a/tracking_data/active_tracking_points.xlsx
+++ b/tracking_data/active_tracking_points.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseylabrie/Desktop/telemetry_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseylabrie/Documents/GitHub/telemetry/tracking_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD33388D-CDC0-3849-88C4-B524B219C123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40950B6-0F1E-E649-895A-EA7952AC36BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="11360" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23320" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="silver tracking 7_8_21" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>10:25:58.208</t>
   </si>
@@ -137,6 +137,30 @@
   </si>
   <si>
     <t>rkm</t>
+  </si>
+  <si>
+    <t>10:27:47.418</t>
+  </si>
+  <si>
+    <t>12:59:36.661</t>
+  </si>
+  <si>
+    <t>12:33:54.730</t>
+  </si>
+  <si>
+    <t>12:26:38.756</t>
+  </si>
+  <si>
+    <t>12:18:04.657</t>
+  </si>
+  <si>
+    <t>12:12:51.114</t>
+  </si>
+  <si>
+    <t>12:10:44.220</t>
+  </si>
+  <si>
+    <t>12:08:11.964</t>
   </si>
 </sst>
 </file>
@@ -646,7 +670,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -656,6 +680,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1011,10 +1037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2010,7 +2037,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40" s="9">
         <v>44433</v>
       </c>
       <c r="B40" s="5">
@@ -2027,9 +2054,217 @@
       <c r="G40" s="6">
         <v>-97.275800000000004</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="10">
         <v>2.6</v>
       </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>44691</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>48475</v>
+      </c>
+      <c r="D41">
+        <v>61</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>43.04833</v>
+      </c>
+      <c r="G41">
+        <v>-97.391450000000006</v>
+      </c>
+      <c r="H41" s="8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>48486</v>
+      </c>
+      <c r="D42" s="1">
+        <v>51</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>42.864469999999997</v>
+      </c>
+      <c r="G42">
+        <v>-97.279070000000004</v>
+      </c>
+      <c r="H42" s="8">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>48476</v>
+      </c>
+      <c r="D43" s="1">
+        <v>59</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>42.880890000000001</v>
+      </c>
+      <c r="G43">
+        <v>-97.279079999999993</v>
+      </c>
+      <c r="H43" s="8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>48480</v>
+      </c>
+      <c r="D44" s="1">
+        <v>63</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>42.886740000000003</v>
+      </c>
+      <c r="G44">
+        <v>-97.276179999999997</v>
+      </c>
+      <c r="H44" s="7">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <v>48479</v>
+      </c>
+      <c r="D45" s="1">
+        <v>70</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>42.892429999999997</v>
+      </c>
+      <c r="G45">
+        <v>-97.275620000000004</v>
+      </c>
+      <c r="H45" s="8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>48482</v>
+      </c>
+      <c r="D46" s="1">
+        <v>67</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>42.895470000000003</v>
+      </c>
+      <c r="G46">
+        <v>-97.276650000000004</v>
+      </c>
+      <c r="H46" s="8">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47">
+        <v>48485</v>
+      </c>
+      <c r="D47" s="1">
+        <v>55</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>42.897199999999998</v>
+      </c>
+      <c r="G47">
+        <v>-97.277760000000001</v>
+      </c>
+      <c r="H47" s="8">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>48483</v>
+      </c>
+      <c r="D48" s="1">
+        <v>55</v>
+      </c>
+      <c r="F48">
+        <v>42.898980000000002</v>
+      </c>
+      <c r="G48">
+        <v>-97.279139999999998</v>
+      </c>
+      <c r="H48" s="8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">

--- a/tracking_data/active_tracking_points.xlsx
+++ b/tracking_data/active_tracking_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseylabrie/Documents/GitHub/telemetry/tracking_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40950B6-0F1E-E649-895A-EA7952AC36BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F42B64C-1097-8045-9FCA-8D6448D24DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23320" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>10:25:58.208</t>
   </si>
@@ -161,6 +161,33 @@
   </si>
   <si>
     <t>12:08:11.964</t>
+  </si>
+  <si>
+    <t>13:41:17.710</t>
+  </si>
+  <si>
+    <t>14:47:03.662</t>
+  </si>
+  <si>
+    <t>13:49:19.752</t>
+  </si>
+  <si>
+    <t>12:17:07.717</t>
+  </si>
+  <si>
+    <t>11:03:27.276</t>
+  </si>
+  <si>
+    <t>13:29:18.425</t>
+  </si>
+  <si>
+    <t>11:14:44.010</t>
+  </si>
+  <si>
+    <t>12:46:04.002</t>
+  </si>
+  <si>
+    <t>11:42:11.270</t>
   </si>
 </sst>
 </file>
@@ -670,7 +697,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -682,6 +709,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1037,11 +1069,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2240,31 +2272,265 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+    <row r="48" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
         <v>44692</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="11">
         <v>48483</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="12">
         <v>55</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="11">
         <v>42.898980000000002</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="11">
         <v>-97.279139999999998</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="10">
         <v>3.7</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
+        <v>44699</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1">
+        <v>48468</v>
+      </c>
+      <c r="D49" s="1">
+        <v>79</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>43.068579999999997</v>
+      </c>
+      <c r="G49" s="1">
+        <v>-97.427859999999995</v>
+      </c>
+      <c r="H49" s="8">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>44697</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1">
+        <v>48462</v>
+      </c>
+      <c r="D50" s="1">
+        <v>75</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>43.139249999999997</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-97.536180000000002</v>
+      </c>
+      <c r="H50" s="7">
+        <v>88.85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
+        <v>44697</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1">
+        <v>48464</v>
+      </c>
+      <c r="D51" s="1">
+        <v>82</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>43.149079999999998</v>
+      </c>
+      <c r="G51" s="1">
+        <v>-97.59563</v>
+      </c>
+      <c r="H51" s="8">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>44697</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="12">
+        <v>48478</v>
+      </c>
+      <c r="D52" s="12">
+        <v>74</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12">
+        <v>43.19023</v>
+      </c>
+      <c r="G52" s="12">
+        <v>-97.646609999999995</v>
+      </c>
+      <c r="H52" s="10">
+        <v>107.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>44707</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1">
+        <v>48732</v>
+      </c>
+      <c r="D53" s="1">
+        <v>81</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>43.01417</v>
+      </c>
+      <c r="G53" s="1">
+        <v>-97.365530000000007</v>
+      </c>
+      <c r="H53" s="8">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>44704</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1">
+        <v>48462</v>
+      </c>
+      <c r="D54" s="1">
+        <v>76</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>43.139290000000003</v>
+      </c>
+      <c r="G54" s="1">
+        <v>-97.537989999999994</v>
+      </c>
+      <c r="H54" s="8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="15">
+        <v>44704</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="12">
+        <v>48478</v>
+      </c>
+      <c r="D55" s="12">
+        <v>66</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0</v>
+      </c>
+      <c r="F55" s="12">
+        <v>43.190510000000003</v>
+      </c>
+      <c r="G55" s="12">
+        <v>-97.647400000000005</v>
+      </c>
+      <c r="H55" s="10">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="14">
+        <v>44712</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>48462</v>
+      </c>
+      <c r="D56">
+        <v>60</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>43.241079999999997</v>
+      </c>
+      <c r="G56">
+        <v>-97.657619999999994</v>
+      </c>
+      <c r="H56" s="8">
+        <v>118.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="14">
+        <v>44712</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <v>48478</v>
+      </c>
+      <c r="D57">
+        <v>69</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>43.278190000000002</v>
+      </c>
+      <c r="G57">
+        <v>-97.630039999999994</v>
+      </c>
+      <c r="H57" s="7">
+        <v>126.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H58" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">

--- a/tracking_data/active_tracking_points.xlsx
+++ b/tracking_data/active_tracking_points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseylabrie/Documents/GitHub/telemetry/tracking_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F42B64C-1097-8045-9FCA-8D6448D24DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84449BB-CBE6-8441-AFFC-EC8CB8E6116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23320" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="500" windowWidth="23320" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="silver tracking 7_8_21" sheetId="1" r:id="rId1"/>
@@ -697,7 +697,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -714,6 +714,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1069,11 +1071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2113,7 +2115,7 @@
         <v>-97.391450000000006</v>
       </c>
       <c r="H41" s="8">
-        <v>87</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2504,33 +2506,82 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="14">
+      <c r="A57" s="15">
         <v>44712</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="11">
         <v>48478</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="11">
         <v>69</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="11">
         <v>0</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="11">
         <v>43.278190000000002</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="11">
         <v>-97.630039999999994</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="17">
         <v>126.25</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H58" s="7"/>
+      <c r="A58" s="14">
+        <v>44727</v>
+      </c>
+      <c r="B58" s="16">
+        <v>0.50481153935185186</v>
+      </c>
+      <c r="C58">
+        <v>48475</v>
+      </c>
+      <c r="D58">
+        <v>64</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>43.048090000000002</v>
+      </c>
+      <c r="G58">
+        <v>-97.391890000000004</v>
+      </c>
+      <c r="H58" s="8">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="14">
+        <v>44727</v>
+      </c>
+      <c r="B59" s="16">
+        <v>0.47331870370370371</v>
+      </c>
+      <c r="C59">
+        <v>48465</v>
+      </c>
+      <c r="D59">
+        <v>55</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>43.050989999999999</v>
+      </c>
+      <c r="G59">
+        <v>-97.406270000000006</v>
+      </c>
+      <c r="H59" s="8">
+        <v>41.7</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">

--- a/tracking_data/active_tracking_points.xlsx
+++ b/tracking_data/active_tracking_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseylabrie/Documents/GitHub/telemetry/tracking_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84449BB-CBE6-8441-AFFC-EC8CB8E6116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C532E092-D7DC-B749-BFE4-B8B25903314D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="500" windowWidth="23320" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,7 +697,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -716,6 +716,9 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1071,11 +1074,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2558,29 +2561,81 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="14">
+      <c r="A59" s="15">
         <v>44727</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="18">
         <v>0.47331870370370371</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="11">
         <v>48465</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="11">
         <v>55</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="11">
         <v>18</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="11">
         <v>43.050989999999999</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="11">
         <v>-97.406270000000006</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="10">
         <v>41.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="19">
+        <v>44733</v>
+      </c>
+      <c r="B60" s="16">
+        <v>0.58141517361111117</v>
+      </c>
+      <c r="C60">
+        <v>48465</v>
+      </c>
+      <c r="D60">
+        <v>63</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
+      </c>
+      <c r="F60">
+        <v>43.050919999999998</v>
+      </c>
+      <c r="G60">
+        <v>-97.40625</v>
+      </c>
+      <c r="H60" s="20">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="19">
+        <v>44733</v>
+      </c>
+      <c r="B61" s="16">
+        <v>0.55272788194444444</v>
+      </c>
+      <c r="C61">
+        <v>48467</v>
+      </c>
+      <c r="D61">
+        <v>80</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <v>43.073459999999997</v>
+      </c>
+      <c r="G61">
+        <v>-97.426220000000001</v>
+      </c>
+      <c r="H61" s="8">
+        <v>47.2</v>
       </c>
     </row>
   </sheetData>

--- a/tracking_data/active_tracking_points.xlsx
+++ b/tracking_data/active_tracking_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseylabrie/Documents/GitHub/telemetry/tracking_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C532E092-D7DC-B749-BFE4-B8B25903314D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEE1254-CE80-9F4E-A406-D98210520943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="500" windowWidth="23320" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,7 +697,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -719,6 +719,9 @@
     <xf numFmtId="47" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1074,11 +1077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2613,29 +2616,263 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="19">
+      <c r="A61" s="22">
         <v>44733</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="18">
         <v>0.55272788194444444</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="11">
         <v>48467</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="11">
         <v>80</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="11">
         <v>12</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="11">
         <v>43.073459999999997</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="11">
         <v>-97.426220000000001</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="10">
         <v>47.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="21">
+        <v>44855</v>
+      </c>
+      <c r="B62" s="16">
+        <v>2.86412037037037E-2</v>
+      </c>
+      <c r="C62">
+        <v>48465</v>
+      </c>
+      <c r="D62">
+        <v>62</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>43.050899999999999</v>
+      </c>
+      <c r="G62">
+        <v>-97.406210000000002</v>
+      </c>
+      <c r="H62" s="20">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="21">
+        <v>44855</v>
+      </c>
+      <c r="B63" s="16">
+        <v>4.0488425925925928E-2</v>
+      </c>
+      <c r="C63">
+        <v>48467</v>
+      </c>
+      <c r="D63">
+        <v>64</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>43.073630000000001</v>
+      </c>
+      <c r="G63">
+        <v>-97.426310000000001</v>
+      </c>
+      <c r="H63" s="20">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="21">
+        <v>44855</v>
+      </c>
+      <c r="B64" s="16">
+        <v>8.3969907407407413E-3</v>
+      </c>
+      <c r="C64">
+        <v>48468</v>
+      </c>
+      <c r="D64">
+        <v>72</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>43.083179999999999</v>
+      </c>
+      <c r="G64">
+        <v>-97.431309999999996</v>
+      </c>
+      <c r="H64" s="8">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="21">
+        <v>44855</v>
+      </c>
+      <c r="B65" s="16">
+        <v>6.2037037037037041E-4</v>
+      </c>
+      <c r="C65">
+        <v>48471</v>
+      </c>
+      <c r="D65">
+        <v>61</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>43.070999999999998</v>
+      </c>
+      <c r="G65">
+        <v>-97.424040000000005</v>
+      </c>
+      <c r="H65" s="8">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="21">
+        <v>44855</v>
+      </c>
+      <c r="B66" s="16">
+        <v>1.3449074074074073E-2</v>
+      </c>
+      <c r="C66">
+        <v>48475</v>
+      </c>
+      <c r="D66">
+        <v>70</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>43.048279999999998</v>
+      </c>
+      <c r="G66">
+        <v>-97.391630000000006</v>
+      </c>
+      <c r="H66" s="8">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="21">
+        <v>44855</v>
+      </c>
+      <c r="B67" s="16">
+        <v>3.9363425925925928E-3</v>
+      </c>
+      <c r="C67">
+        <v>48478</v>
+      </c>
+      <c r="D67">
+        <v>52</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>43.125070000000001</v>
+      </c>
+      <c r="G67">
+        <v>-97.513990000000007</v>
+      </c>
+      <c r="H67" s="8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="21">
+        <v>44855</v>
+      </c>
+      <c r="B68" s="16">
+        <v>8.7557870370370359E-3</v>
+      </c>
+      <c r="C68">
+        <v>48487</v>
+      </c>
+      <c r="D68">
+        <v>64</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>43.083150000000003</v>
+      </c>
+      <c r="G68">
+        <v>-97.431479999999993</v>
+      </c>
+      <c r="H68" s="8">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="21">
+        <v>44855</v>
+      </c>
+      <c r="B69" s="16">
+        <v>7.7233796296296295E-3</v>
+      </c>
+      <c r="C69">
+        <v>48490</v>
+      </c>
+      <c r="D69">
+        <v>58</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <v>43.068060000000003</v>
+      </c>
+      <c r="G69">
+        <v>-97.422449999999998</v>
+      </c>
+      <c r="H69" s="8">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="23">
+        <v>44860</v>
+      </c>
+      <c r="B70" s="18">
+        <v>1.5342592592592593E-2</v>
+      </c>
+      <c r="C70" s="11">
+        <v>48462</v>
+      </c>
+      <c r="D70" s="11">
+        <v>69</v>
+      </c>
+      <c r="E70" s="11">
+        <v>0</v>
+      </c>
+      <c r="F70" s="11">
+        <v>43.014110000000002</v>
+      </c>
+      <c r="G70" s="11">
+        <v>-97.365039999999993</v>
+      </c>
+      <c r="H70" s="10">
+        <v>31.6</v>
       </c>
     </row>
   </sheetData>

--- a/tracking_data/active_tracking_points.xlsx
+++ b/tracking_data/active_tracking_points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseylabrie/Documents/GitHub/telemetry/tracking_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEE1254-CE80-9F4E-A406-D98210520943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E75B6F4-522D-BD46-807E-AFA7986CE573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="500" windowWidth="23320" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,7 +697,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -722,6 +722,8 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1077,11 +1079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2875,6 +2877,58 @@
         <v>31.6</v>
       </c>
     </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="23">
+        <v>44704</v>
+      </c>
+      <c r="B71" s="24">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C71" s="25">
+        <v>48728</v>
+      </c>
+      <c r="D71" s="25">
+        <v>0</v>
+      </c>
+      <c r="E71" s="25">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>41.551037999999998</v>
+      </c>
+      <c r="G71" s="1">
+        <v>-96.095665999999994</v>
+      </c>
+      <c r="H71" s="8">
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="23">
+        <v>44726</v>
+      </c>
+      <c r="B72" s="24">
+        <v>0.8027777777777777</v>
+      </c>
+      <c r="C72" s="25">
+        <v>48728</v>
+      </c>
+      <c r="D72" s="25">
+        <v>0</v>
+      </c>
+      <c r="E72" s="25">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>41.551037999999998</v>
+      </c>
+      <c r="G72" s="1">
+        <v>-96.095665999999994</v>
+      </c>
+      <c r="H72" s="8">
+        <v>-236</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
     <sortCondition ref="C2:C12"/>
